--- a/tables/DE/exp1/DE_table2_F2_dim10.xlsx
+++ b/tables/DE/exp1/DE_table2_F2_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -187,7 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,14 +221,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -514,18 +518,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">

--- a/tables/DE/exp1/DE_table2_F2_dim10.xlsx
+++ b/tables/DE/exp1/DE_table2_F2_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>5530175295.414753</v>
       </c>
       <c r="AZ2" t="n">
-        <v>10942672025.25105</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>16733845886.35564</v>
+        <v>16849669363.57773</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>17249483102.47459</v>
@@ -890,8 +881,12 @@
       <c r="K3" t="n">
         <v>15348714888.35075</v>
       </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
+      <c r="L3" t="n">
+        <v>23962772539.81879</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9269472906.527388</v>
+      </c>
       <c r="N3" t="n">
         <v>11552135328.68132</v>
       </c>
@@ -910,7 +905,9 @@
       <c r="S3" t="n">
         <v>10342952367.25079</v>
       </c>
-      <c r="T3" t="s"/>
+      <c r="T3" t="n">
+        <v>11695016925.11665</v>
+      </c>
       <c r="U3" t="n">
         <v>9762317744.79842</v>
       </c>
@@ -929,7 +926,9 @@
       <c r="Z3" t="n">
         <v>7357875919.414804</v>
       </c>
-      <c r="AA3" t="s"/>
+      <c r="AA3" t="n">
+        <v>13881840481.86671</v>
+      </c>
       <c r="AB3" t="n">
         <v>15039845351.13927</v>
       </c>
@@ -951,7 +950,9 @@
       <c r="AH3" t="n">
         <v>16704336411.88493</v>
       </c>
-      <c r="AI3" t="s"/>
+      <c r="AI3" t="n">
+        <v>9592025027.336111</v>
+      </c>
       <c r="AJ3" t="n">
         <v>11415378635.70153</v>
       </c>
@@ -967,7 +968,9 @@
       <c r="AN3" t="n">
         <v>12585452545.42182</v>
       </c>
-      <c r="AO3" t="s"/>
+      <c r="AO3" t="n">
+        <v>12598924151.49422</v>
+      </c>
       <c r="AP3" t="n">
         <v>10636630039.89773</v>
       </c>
@@ -989,7 +992,9 @@
       <c r="AV3" t="n">
         <v>8826303334.053905</v>
       </c>
-      <c r="AW3" t="s"/>
+      <c r="AW3" t="n">
+        <v>15798494631.99224</v>
+      </c>
       <c r="AX3" t="n">
         <v>17312507736.09267</v>
       </c>
@@ -997,15 +1002,12 @@
         <v>4356328986.804004</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8101317482.215904</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>11539027228.78298</v>
+        <v>11928288544.96775</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>331841608.2225075</v>
@@ -1037,8 +1039,12 @@
       <c r="K4" t="n">
         <v>684503807.2496421</v>
       </c>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
+      <c r="L4" t="n">
+        <v>7488452042.367895</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5570808799.077648</v>
+      </c>
       <c r="N4" t="n">
         <v>218016506.5495651</v>
       </c>
@@ -1057,7 +1063,9 @@
       <c r="S4" t="n">
         <v>409457165.8066352</v>
       </c>
-      <c r="T4" t="s"/>
+      <c r="T4" t="n">
+        <v>8593934958.700897</v>
+      </c>
       <c r="U4" t="n">
         <v>349983495.3555169</v>
       </c>
@@ -1076,7 +1084,9 @@
       <c r="Z4" t="n">
         <v>505516109.3252369</v>
       </c>
-      <c r="AA4" t="s"/>
+      <c r="AA4" t="n">
+        <v>13881840481.86671</v>
+      </c>
       <c r="AB4" t="n">
         <v>364673811.9613506</v>
       </c>
@@ -1098,7 +1108,9 @@
       <c r="AH4" t="n">
         <v>351563644.9320915</v>
       </c>
-      <c r="AI4" t="s"/>
+      <c r="AI4" t="n">
+        <v>7365880370.89247</v>
+      </c>
       <c r="AJ4" t="n">
         <v>110360950.6327983</v>
       </c>
@@ -1114,7 +1126,9 @@
       <c r="AN4" t="n">
         <v>253937921.8997799</v>
       </c>
-      <c r="AO4" t="s"/>
+      <c r="AO4" t="n">
+        <v>6411278973.132987</v>
+      </c>
       <c r="AP4" t="n">
         <v>169835415.5240006</v>
       </c>
@@ -1136,7 +1150,9 @@
       <c r="AV4" t="n">
         <v>133391092.8511372</v>
       </c>
-      <c r="AW4" t="s"/>
+      <c r="AW4" t="n">
+        <v>6826037254.240469</v>
+      </c>
       <c r="AX4" t="n">
         <v>85649831.34439313</v>
       </c>
@@ -1144,15 +1160,12 @@
         <v>100105090.976732</v>
       </c>
       <c r="AZ4" t="n">
-        <v>261620232.1419872</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>331086710.3790125</v>
+        <v>1408888558.096272</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>333</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>138074.54159336</v>
@@ -1184,8 +1197,12 @@
       <c r="K5" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
+      <c r="L5" t="n">
+        <v>9122373.346950511</v>
+      </c>
+      <c r="M5" t="n">
+        <v>47187783.65968932</v>
+      </c>
       <c r="N5" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -1204,7 +1221,9 @@
       <c r="S5" t="n">
         <v>3.42276146</v>
       </c>
-      <c r="T5" t="s"/>
+      <c r="T5" t="n">
+        <v>13998422.50891949</v>
+      </c>
       <c r="U5" t="n">
         <v>16.23235741</v>
       </c>
@@ -1223,7 +1242,9 @@
       <c r="Z5" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA5" t="s"/>
+      <c r="AA5" t="n">
+        <v>16207016.4152271</v>
+      </c>
       <c r="AB5" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -1245,7 +1266,9 @@
       <c r="AH5" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI5" t="s"/>
+      <c r="AI5" t="n">
+        <v>7080006.02948127</v>
+      </c>
       <c r="AJ5" t="n">
         <v>0.6705352</v>
       </c>
@@ -1261,7 +1284,9 @@
       <c r="AN5" t="n">
         <v>35932.45138805</v>
       </c>
-      <c r="AO5" t="s"/>
+      <c r="AO5" t="n">
+        <v>27184247.64106239</v>
+      </c>
       <c r="AP5" t="n">
         <v>1634336.43039788</v>
       </c>
@@ -1283,7 +1308,9 @@
       <c r="AV5" t="n">
         <v>3939.77788867</v>
       </c>
-      <c r="AW5" t="s"/>
+      <c r="AW5" t="n">
+        <v>6567252.42206041</v>
+      </c>
       <c r="AX5" t="n">
         <v>113992.01819057</v>
       </c>
@@ -1291,15 +1318,12 @@
         <v>110661.00173906</v>
       </c>
       <c r="AZ5" t="n">
-        <v>84.80914899</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>20634106.69080114</v>
+        <v>20704954.23218983</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>666</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>138074.54159336</v>
@@ -1331,8 +1355,12 @@
       <c r="K6" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
+      <c r="L6" t="n">
+        <v>22765.44404874</v>
+      </c>
+      <c r="M6" t="n">
+        <v>55906.16961238</v>
+      </c>
       <c r="N6" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -1351,7 +1379,9 @@
       <c r="S6" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T6" t="s"/>
+      <c r="T6" t="n">
+        <v>106095.41894152</v>
+      </c>
       <c r="U6" t="n">
         <v>16.23235409</v>
       </c>
@@ -1370,7 +1400,9 @@
       <c r="Z6" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA6" t="s"/>
+      <c r="AA6" t="n">
+        <v>31438.44719703</v>
+      </c>
       <c r="AB6" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -1392,7 +1424,9 @@
       <c r="AH6" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI6" t="s"/>
+      <c r="AI6" t="n">
+        <v>13329.52547113</v>
+      </c>
       <c r="AJ6" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -1408,7 +1442,9 @@
       <c r="AN6" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO6" t="s"/>
+      <c r="AO6" t="n">
+        <v>43649.35354769</v>
+      </c>
       <c r="AP6" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -1430,7 +1466,9 @@
       <c r="AV6" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW6" t="s"/>
+      <c r="AW6" t="n">
+        <v>19452.97099146</v>
+      </c>
       <c r="AX6" t="n">
         <v>113992.01819057</v>
       </c>
@@ -1438,15 +1476,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ6" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>20634106.67070367</v>
+        <v>18163864.92064066</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>138074.54159336</v>
@@ -1478,8 +1513,12 @@
       <c r="K7" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
+      <c r="L7" t="n">
+        <v>10545.24014355</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1186.29533644</v>
+      </c>
       <c r="N7" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -1498,7 +1537,9 @@
       <c r="S7" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T7" t="s"/>
+      <c r="T7" t="n">
+        <v>9554.052393149999</v>
+      </c>
       <c r="U7" t="n">
         <v>16.23235409</v>
       </c>
@@ -1517,7 +1558,9 @@
       <c r="Z7" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA7" t="s"/>
+      <c r="AA7" t="n">
+        <v>3574.89748924</v>
+      </c>
       <c r="AB7" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -1539,7 +1582,9 @@
       <c r="AH7" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI7" t="s"/>
+      <c r="AI7" t="n">
+        <v>1601.75750491</v>
+      </c>
       <c r="AJ7" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -1555,7 +1600,9 @@
       <c r="AN7" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO7" t="s"/>
+      <c r="AO7" t="n">
+        <v>2267.47214651</v>
+      </c>
       <c r="AP7" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -1577,7 +1624,9 @@
       <c r="AV7" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW7" t="s"/>
+      <c r="AW7" t="n">
+        <v>9841.8605252</v>
+      </c>
       <c r="AX7" t="n">
         <v>113992.01819057</v>
       </c>
@@ -1585,15 +1634,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ7" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>20634106.67070367</v>
+        <v>18158783.60555524</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1333</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>138074.54159336</v>
@@ -1625,8 +1671,12 @@
       <c r="K8" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
+      <c r="L8" t="n">
+        <v>119.9457822</v>
+      </c>
+      <c r="M8" t="n">
+        <v>826.6026701</v>
+      </c>
       <c r="N8" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -1645,7 +1695,9 @@
       <c r="S8" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T8" t="s"/>
+      <c r="T8" t="n">
+        <v>221.90319375</v>
+      </c>
       <c r="U8" t="n">
         <v>16.23235409</v>
       </c>
@@ -1664,7 +1716,9 @@
       <c r="Z8" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA8" t="s"/>
+      <c r="AA8" t="n">
+        <v>133.46526792</v>
+      </c>
       <c r="AB8" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -1686,7 +1740,9 @@
       <c r="AH8" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI8" t="s"/>
+      <c r="AI8" t="n">
+        <v>18.07039871</v>
+      </c>
       <c r="AJ8" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -1702,7 +1758,9 @@
       <c r="AN8" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO8" t="s"/>
+      <c r="AO8" t="n">
+        <v>42.88266747</v>
+      </c>
       <c r="AP8" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -1724,7 +1782,9 @@
       <c r="AV8" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW8" t="s"/>
+      <c r="AW8" t="n">
+        <v>834.44349991</v>
+      </c>
       <c r="AX8" t="n">
         <v>113992.01819057</v>
       </c>
@@ -1732,15 +1792,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ8" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>20634106.67070367</v>
+        <v>18158056.12031406</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1666</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>138074.54159336</v>
@@ -1772,8 +1829,12 @@
       <c r="K9" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
+      <c r="L9" t="n">
+        <v>0.86147911</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.56462333</v>
+      </c>
       <c r="N9" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -1792,7 +1853,9 @@
       <c r="S9" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T9" t="s"/>
+      <c r="T9" t="n">
+        <v>4.33470343</v>
+      </c>
       <c r="U9" t="n">
         <v>16.23235409</v>
       </c>
@@ -1811,7 +1874,9 @@
       <c r="Z9" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA9" t="s"/>
+      <c r="AA9" t="n">
+        <v>5.57705553</v>
+      </c>
       <c r="AB9" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -1833,7 +1898,9 @@
       <c r="AH9" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI9" t="s"/>
+      <c r="AI9" t="n">
+        <v>0.27093676</v>
+      </c>
       <c r="AJ9" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -1849,7 +1916,9 @@
       <c r="AN9" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO9" t="s"/>
+      <c r="AO9" t="n">
+        <v>0.49901676</v>
+      </c>
       <c r="AP9" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -1871,7 +1940,9 @@
       <c r="AV9" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW9" t="s"/>
+      <c r="AW9" t="n">
+        <v>6.25128782</v>
+      </c>
       <c r="AX9" t="n">
         <v>113992.01819057</v>
       </c>
@@ -1879,15 +1950,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ9" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>20634106.67070367</v>
+        <v>18158012.78122651</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1999</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>138074.54159336</v>
@@ -1919,8 +1987,12 @@
       <c r="K10" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
+      <c r="L10" t="n">
+        <v>0.09644709</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.38477654</v>
+      </c>
       <c r="N10" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -1939,7 +2011,9 @@
       <c r="S10" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T10" t="s"/>
+      <c r="T10" t="n">
+        <v>0.0442095</v>
+      </c>
       <c r="U10" t="n">
         <v>16.23235409</v>
       </c>
@@ -1958,7 +2032,9 @@
       <c r="Z10" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA10" t="s"/>
+      <c r="AA10" t="n">
+        <v>0.02740003</v>
+      </c>
       <c r="AB10" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -1980,7 +2056,9 @@
       <c r="AH10" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI10" t="s"/>
+      <c r="AI10" t="n">
+        <v>0.00307543</v>
+      </c>
       <c r="AJ10" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -1996,7 +2074,9 @@
       <c r="AN10" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO10" t="s"/>
+      <c r="AO10" t="n">
+        <v>0.00081781</v>
+      </c>
       <c r="AP10" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -2018,7 +2098,9 @@
       <c r="AV10" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW10" t="s"/>
+      <c r="AW10" t="n">
+        <v>0.18879636</v>
+      </c>
       <c r="AX10" t="n">
         <v>113992.01819057</v>
       </c>
@@ -2026,15 +2108,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ10" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>20634106.67070367</v>
+        <v>18158012.18895491</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>2332</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>138074.54159336</v>
@@ -2066,8 +2145,12 @@
       <c r="K11" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
+      <c r="L11" t="n">
+        <v>0.00071043</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.00305992</v>
+      </c>
       <c r="N11" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -2086,7 +2169,9 @@
       <c r="S11" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T11" t="s"/>
+      <c r="T11" t="n">
+        <v>0.00080375</v>
+      </c>
       <c r="U11" t="n">
         <v>16.23235409</v>
       </c>
@@ -2105,7 +2190,9 @@
       <c r="Z11" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA11" t="s"/>
+      <c r="AA11" t="n">
+        <v>0.00110263</v>
+      </c>
       <c r="AB11" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -2127,7 +2214,9 @@
       <c r="AH11" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI11" t="s"/>
+      <c r="AI11" t="n">
+        <v>0.00021075</v>
+      </c>
       <c r="AJ11" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -2143,7 +2232,9 @@
       <c r="AN11" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO11" t="s"/>
+      <c r="AO11" t="n">
+        <v>4.075e-05</v>
+      </c>
       <c r="AP11" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -2165,7 +2256,9 @@
       <c r="AV11" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW11" t="s"/>
+      <c r="AW11" t="n">
+        <v>0.0079665</v>
+      </c>
       <c r="AX11" t="n">
         <v>113992.01819057</v>
       </c>
@@ -2173,15 +2266,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ11" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>20634106.67070367</v>
+        <v>18158012.17432236</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2666</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>138074.54159336</v>
@@ -2213,8 +2303,12 @@
       <c r="K12" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
+      <c r="L12" t="n">
+        <v>8.75e-05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.07e-05</v>
+      </c>
       <c r="N12" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -2233,7 +2327,9 @@
       <c r="S12" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T12" t="s"/>
+      <c r="T12" t="n">
+        <v>1.207e-05</v>
+      </c>
       <c r="U12" t="n">
         <v>16.23235409</v>
       </c>
@@ -2252,7 +2348,9 @@
       <c r="Z12" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA12" t="s"/>
+      <c r="AA12" t="n">
+        <v>1.238e-05</v>
+      </c>
       <c r="AB12" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -2274,7 +2372,9 @@
       <c r="AH12" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI12" t="s"/>
+      <c r="AI12" t="n">
+        <v>6.39e-06</v>
+      </c>
       <c r="AJ12" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -2290,7 +2390,9 @@
       <c r="AN12" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO12" t="s"/>
+      <c r="AO12" t="n">
+        <v>3.661e-05</v>
+      </c>
       <c r="AP12" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -2312,7 +2414,9 @@
       <c r="AV12" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW12" t="s"/>
+      <c r="AW12" t="n">
+        <v>4.629e-05</v>
+      </c>
       <c r="AX12" t="n">
         <v>113992.01819057</v>
       </c>
@@ -2320,15 +2424,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ12" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>20634106.67070367</v>
+        <v>18158012.1740493</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2999</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>138074.54159336</v>
@@ -2360,8 +2461,12 @@
       <c r="K13" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
+      <c r="L13" t="n">
+        <v>6.2e-07</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.8e-07</v>
+      </c>
       <c r="N13" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -2380,7 +2485,9 @@
       <c r="S13" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T13" t="s"/>
+      <c r="T13" t="n">
+        <v>7.9e-07</v>
+      </c>
       <c r="U13" t="n">
         <v>16.23235409</v>
       </c>
@@ -2399,7 +2506,9 @@
       <c r="Z13" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA13" t="s"/>
+      <c r="AA13" t="n">
+        <v>3.6e-07</v>
+      </c>
       <c r="AB13" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -2421,7 +2530,9 @@
       <c r="AH13" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI13" t="s"/>
+      <c r="AI13" t="n">
+        <v>1.8e-07</v>
+      </c>
       <c r="AJ13" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -2437,7 +2548,9 @@
       <c r="AN13" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO13" t="s"/>
+      <c r="AO13" t="n">
+        <v>9.2e-07</v>
+      </c>
       <c r="AP13" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -2459,7 +2572,9 @@
       <c r="AV13" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW13" t="s"/>
+      <c r="AW13" t="n">
+        <v>7e-07</v>
+      </c>
       <c r="AX13" t="n">
         <v>113992.01819057</v>
       </c>
@@ -2467,15 +2582,12 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ13" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>20634106.67070367</v>
+        <v>18158012.17404454</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>3332</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>138074.54159336</v>
@@ -2507,8 +2619,12 @@
       <c r="K14" t="n">
         <v>93.31413535999999</v>
       </c>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
+      <c r="L14" t="n">
+        <v>1e-08</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1e-08</v>
+      </c>
       <c r="N14" t="n">
         <v>3577532.27352892</v>
       </c>
@@ -2527,7 +2643,9 @@
       <c r="S14" t="n">
         <v>3.40664294</v>
       </c>
-      <c r="T14" t="s"/>
+      <c r="T14" t="n">
+        <v>1e-08</v>
+      </c>
       <c r="U14" t="n">
         <v>16.23235409</v>
       </c>
@@ -2546,7 +2664,9 @@
       <c r="Z14" t="n">
         <v>8715.447085059999</v>
       </c>
-      <c r="AA14" t="s"/>
+      <c r="AA14" t="n">
+        <v>1e-08</v>
+      </c>
       <c r="AB14" t="n">
         <v>9857.524406729999</v>
       </c>
@@ -2568,7 +2688,9 @@
       <c r="AH14" t="n">
         <v>860797.06978118</v>
       </c>
-      <c r="AI14" t="s"/>
+      <c r="AI14" t="n">
+        <v>1e-08</v>
+      </c>
       <c r="AJ14" t="n">
         <v>0.6705351899999999</v>
       </c>
@@ -2584,7 +2706,9 @@
       <c r="AN14" t="n">
         <v>35932.45138743</v>
       </c>
-      <c r="AO14" t="s"/>
+      <c r="AO14" t="n">
+        <v>1e-08</v>
+      </c>
       <c r="AP14" t="n">
         <v>1634336.39216272</v>
       </c>
@@ -2606,7 +2730,9 @@
       <c r="AV14" t="n">
         <v>3939.77788744</v>
       </c>
-      <c r="AW14" t="s"/>
+      <c r="AW14" t="n">
+        <v>1e-08</v>
+      </c>
       <c r="AX14" t="n">
         <v>113992.01819057</v>
       </c>
@@ -2614,10 +2740,7 @@
         <v>110661.00173579</v>
       </c>
       <c r="AZ14" t="n">
-        <v>84.8087383</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>20634106.67070367</v>
+        <v>18158012.17404446</v>
       </c>
     </row>
   </sheetData>
